--- a/portfolio format - wip.xlsx
+++ b/portfolio format - wip.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYKS\Documents\UNDERGRADUATE\GHOSAL\REPO\P&amp;L CALC, BRINSON PERFORMANCE EVALUATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F4254E-2E24-43B1-9D65-9D3DDAE2AEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EED81B-E08D-4CDA-8983-7C44CCA4E1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="2595" windowWidth="19185" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
+    <sheet name="P&amp;L" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Company name</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Trade date</t>
   </si>
   <si>
-    <t>Value date</t>
-  </si>
-  <si>
     <t>P&amp;L</t>
   </si>
   <si>
@@ -98,6 +96,12 @@
   </si>
   <si>
     <t>PFE</t>
+  </si>
+  <si>
+    <t>Buy/sell</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -105,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,14 +164,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -475,23 +493,23 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,16 +540,16 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>148.11000000000001</v>
@@ -540,83 +558,110 @@
         <v>133.88</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
       <c r="I2" s="1">
         <v>44868</v>
       </c>
-      <c r="J2" s="1">
-        <v>44871</v>
+      <c r="J2">
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3">
         <v>93.41</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4">
         <v>97.6</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5">
         <v>162.69999999999999</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="C6">
         <v>29.34</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
       </c>
       <c r="C7">
         <v>49.21</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1317E1E2-98FD-44B0-A6D0-AD92398B920B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/portfolio format - wip.xlsx
+++ b/portfolio format - wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYKS\Documents\UNDERGRADUATE\GHOSAL\REPO\P&amp;L CALC, BRINSON PERFORMANCE EVALUATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EED81B-E08D-4CDA-8983-7C44CCA4E1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2002335A-6E02-4CA2-8AC4-68383DCC735B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Company name</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>XYZ Inc.</t>
+  </si>
+  <si>
+    <t>some price</t>
   </si>
 </sst>
 </file>
@@ -490,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,6 +610,9 @@
       <c r="C3">
         <v>93.41</v>
       </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
       <c r="K3">
         <v>0</v>
       </c>
@@ -603,6 +627,9 @@
       <c r="C4">
         <v>97.6</v>
       </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
       <c r="K4">
         <v>0</v>
       </c>
@@ -617,6 +644,9 @@
       <c r="C5">
         <v>162.69999999999999</v>
       </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
@@ -631,6 +661,9 @@
       <c r="C6">
         <v>29.34</v>
       </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
       <c r="K6">
         <v>0</v>
       </c>
@@ -645,8 +678,25 @@
       <c r="C7">
         <v>49.21</v>
       </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
       <c r="K7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
